--- a/NEW HR/DONE/MENDOZA, ERNESTO.xlsx
+++ b/NEW HR/DONE/MENDOZA, ERNESTO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\DONE 2-2-2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEAC73FD-8C20-4A60-B786-3A4C60A17061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA27D683-F1C1-4095-A8C1-D150F4B63F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -581,15 +581,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -602,11 +593,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3248,9 +3248,9 @@
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="5376" topLeftCell="A70" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="K75" sqref="K75"/>
+    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <pane ySplit="3108" topLeftCell="A70" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C76" sqref="C76:C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3280,14 +3280,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -3298,14 +3298,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="50"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -3318,14 +3318,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -3351,18 +3351,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3409,7 +3409,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>51.25</v>
+        <v>56.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3419,7 +3419,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>76.25</v>
+        <v>81.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4783,15 +4783,19 @@
       <c r="K76" s="20"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="40"/>
+      <c r="A77" s="40">
+        <v>44958</v>
+      </c>
       <c r="B77" s="20"/>
-      <c r="C77" s="13"/>
+      <c r="C77" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D77" s="39"/>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G77" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
@@ -4799,15 +4803,19 @@
       <c r="K77" s="20"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="40"/>
+      <c r="A78" s="40">
+        <v>44986</v>
+      </c>
       <c r="B78" s="20"/>
-      <c r="C78" s="13"/>
+      <c r="C78" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="39"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
@@ -4815,15 +4823,19 @@
       <c r="K78" s="20"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="40"/>
+      <c r="A79" s="40">
+        <v>45017</v>
+      </c>
       <c r="B79" s="20"/>
-      <c r="C79" s="13"/>
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="39"/>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
@@ -4831,15 +4843,19 @@
       <c r="K79" s="20"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="40"/>
+      <c r="A80" s="40">
+        <v>45047</v>
+      </c>
       <c r="B80" s="20"/>
-      <c r="C80" s="13"/>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
@@ -4847,7 +4863,9 @@
       <c r="K80" s="20"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="40"/>
+      <c r="A81" s="40">
+        <v>45078</v>
+      </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
       <c r="D81" s="39"/>
@@ -4863,7 +4881,9 @@
       <c r="K81" s="20"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="40"/>
+      <c r="A82" s="40">
+        <v>45108</v>
+      </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
       <c r="D82" s="39"/>
@@ -4879,7 +4899,9 @@
       <c r="K82" s="20"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="40"/>
+      <c r="A83" s="40">
+        <v>45139</v>
+      </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
       <c r="D83" s="39"/>
@@ -4895,7 +4917,9 @@
       <c r="K83" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="40"/>
+      <c r="A84" s="40">
+        <v>45170</v>
+      </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
       <c r="D84" s="39"/>
@@ -4911,7 +4935,9 @@
       <c r="K84" s="20"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="40"/>
+      <c r="A85" s="40">
+        <v>45200</v>
+      </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
@@ -4927,7 +4953,9 @@
       <c r="K85" s="20"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="40"/>
+      <c r="A86" s="40">
+        <v>45231</v>
+      </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
       <c r="D86" s="39"/>
@@ -4943,7 +4971,9 @@
       <c r="K86" s="20"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="40"/>
+      <c r="A87" s="40">
+        <v>45261</v>
+      </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
@@ -4959,7 +4989,9 @@
       <c r="K87" s="20"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="40"/>
+      <c r="A88" s="40">
+        <v>45292</v>
+      </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
@@ -4975,7 +5007,9 @@
       <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="40"/>
+      <c r="A89" s="40">
+        <v>45323</v>
+      </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
@@ -4991,7 +5025,9 @@
       <c r="K89" s="20"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="40"/>
+      <c r="A90" s="40">
+        <v>45352</v>
+      </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
       <c r="D90" s="39"/>
@@ -5007,7 +5043,9 @@
       <c r="K90" s="20"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="40"/>
+      <c r="A91" s="40">
+        <v>45383</v>
+      </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
       <c r="D91" s="39"/>
@@ -5023,7 +5061,9 @@
       <c r="K91" s="20"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="40"/>
+      <c r="A92" s="40">
+        <v>45413</v>
+      </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
       <c r="D92" s="39"/>
@@ -5039,7 +5079,9 @@
       <c r="K92" s="20"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="40"/>
+      <c r="A93" s="40">
+        <v>45444</v>
+      </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
       <c r="D93" s="39"/>
@@ -5055,7 +5097,9 @@
       <c r="K93" s="20"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="40"/>
+      <c r="A94" s="40">
+        <v>45474</v>
+      </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
       <c r="D94" s="39"/>
@@ -5712,17 +5756,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -5758,7 +5802,7 @@
   <dimension ref="A2:K130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="5532" topLeftCell="A7" activePane="bottomLeft"/>
+      <pane ySplit="5532" topLeftCell="A7"/>
       <selection activeCell="B4" sqref="B4:C4"/>
       <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
@@ -5791,14 +5835,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -5812,17 +5856,17 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56" t="str">
+      <c r="F3" s="53" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="50"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -5836,17 +5880,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50" t="str">
+      <c r="F4" s="54" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="50"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -5872,18 +5916,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
